--- a/Certification CDA/Dictionnaire_de_données.xlsx
+++ b/Certification CDA/Dictionnaire_de_données.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSI\Certif_CDA_Contenue\Certification CDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Desktop\EPSI\Certif_CDA_Contenue\Certification CDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BD72DE-0F1A-4E55-B2CD-A4E787C2560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624FD839-BC34-49F5-B9D5-077B6844D92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{BFD78A4C-CC57-46D2-B9F0-C85E0DC209F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFD78A4C-CC57-46D2-B9F0-C85E0DC209F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -327,28 +327,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -665,507 +835,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B0E060-E3EB-4A64-B3A7-BBBC24652CC6}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="16.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10">
         <v>50</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="15">
         <v>34000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10">
         <v>100</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="11">
         <v>1.99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="11">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10">
         <v>50</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="17">
         <v>43956</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10">
         <v>150</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10">
         <v>45</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10">
         <v>150</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="10">
         <v>11</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="11">
         <v>34000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10">
         <v>100</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="10">
         <v>100</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10">
         <v>50</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="10">
         <v>50</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10">
         <v>15</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10">
         <v>15</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="14">
         <v>500</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="20">
         <v>11</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="19" t="s">
         <v>83</v>
       </c>
+      <c r="E31" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
